--- a/Documenti/RA/esterni/piano_di_progetto/pianificazione.xlsx
+++ b/Documenti/RA/esterni/piano_di_progetto/pianificazione.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="717" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="PA" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="121">
   <si>
     <t>Progettazione Architetturale</t>
   </si>
@@ -362,6 +362,21 @@
     <t>RQ</t>
   </si>
   <si>
+    <t>valentino</t>
+  </si>
+  <si>
+    <t>jessica</t>
+  </si>
+  <si>
+    <t>agostino</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>pardis</t>
+  </si>
+  <si>
     <t>nuovo preventivo</t>
   </si>
   <si>
@@ -699,7 +714,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -888,10 +903,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1004,18 +1015,18 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Linked Cell" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Stile 1" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Total" xfId="22"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StileGiacomo" xfId="23"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in 40% - Accent5" xfId="24"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StileValentino" xfId="25"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StileJe" xfId="26"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StileAgo" xfId="27"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StileMary" xfId="28"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in StilePardis" xfId="29"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Bad" xfId="30"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Good" xfId="31"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Linked Cell" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Stile 1" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Total" xfId="22"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StileGiacomo" xfId="23"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in 40% - Accent5" xfId="24"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StileValentino" xfId="25"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StileJe" xfId="26"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StileAgo" xfId="27"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StileMary" xfId="28"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in StilePardis" xfId="29"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Bad" xfId="30"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Good" xfId="31"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1201,11 +1212,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="150"/>
-        <c:axId val="12839"/>
-        <c:axId val="30241"/>
+        <c:axId val="3013"/>
+        <c:axId val="25991"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12839"/>
+        <c:axId val="3013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30241"/>
+        <c:crossAx val="25991"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1228,7 +1239,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30241"/>
+        <c:axId val="25991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14000"/>
@@ -1247,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12839"/>
+        <c:crossAx val="3013"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="500"/>
         <c:spPr>
@@ -1478,11 +1489,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="150"/>
-        <c:axId val="3566"/>
-        <c:axId val="26951"/>
+        <c:axId val="25186"/>
+        <c:axId val="15836"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3566"/>
+        <c:axId val="25186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="26951"/>
+        <c:crossAx val="15836"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1505,7 +1516,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26951"/>
+        <c:axId val="15836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14000"/>
@@ -1524,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3566"/>
+        <c:crossAx val="25186"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="500"/>
         <c:spPr>
@@ -1557,15 +1568,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1158840</xdr:colOff>
+      <xdr:colOff>1185840</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>567720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1573,8 +1584,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1158840" y="36557640"/>
-        <a:ext cx="7906320" cy="4828320"/>
+        <a:off x="1185840" y="36548640"/>
+        <a:ext cx="7905960" cy="4827960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1592,15 +1603,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349200</xdr:colOff>
+      <xdr:colOff>376200</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1608,8 +1619,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="349200" y="39015360"/>
-        <a:ext cx="10217160" cy="5523840"/>
+        <a:off x="376200" y="39006360"/>
+        <a:ext cx="10216800" cy="5523480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8044,7 +8055,7 @@
         <f aca="false">T59+T63+T71+T67+T83</f>
         <v>10</v>
       </c>
-      <c r="V92" s="47" t="n">
+      <c r="V92" s="0" t="n">
         <f aca="false">S107</f>
         <v>10</v>
       </c>
@@ -8129,7 +8140,7 @@
         <f aca="false">T58</f>
         <v>7</v>
       </c>
-      <c r="V93" s="47" t="n">
+      <c r="V93" s="0" t="n">
         <f aca="false">S114</f>
         <v>7</v>
       </c>
@@ -8283,7 +8294,7 @@
         <f aca="false">T60+T64+T68</f>
         <v>100</v>
       </c>
-      <c r="V95" s="47" t="n">
+      <c r="V95" s="0" t="n">
         <f aca="false">S104+S106+S110+S113</f>
         <v>100</v>
       </c>
@@ -8368,7 +8379,7 @@
         <f aca="false">T72</f>
         <v>35</v>
       </c>
-      <c r="V96" s="47" t="n">
+      <c r="V96" s="0" t="n">
         <f aca="false">S108+S109+S111</f>
         <v>35</v>
       </c>
@@ -8453,7 +8464,7 @@
         <f aca="false">T62+T66+T70+T82</f>
         <v>49</v>
       </c>
-      <c r="V97" s="47" t="n">
+      <c r="V97" s="0" t="n">
         <f aca="false">S105+S112+S115</f>
         <v>49</v>
       </c>
@@ -8534,7 +8545,7 @@
         <f aca="false">SUM(U92:U97)</f>
         <v>201</v>
       </c>
-      <c r="V98" s="47" t="n">
+      <c r="V98" s="0" t="n">
         <f aca="false">SUM(V92:V97)</f>
         <v>201</v>
       </c>
@@ -8595,7 +8606,7 @@
       <c r="T99" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U99" s="47" t="n">
+      <c r="U99" s="0" t="n">
         <f aca="false">U98+W98</f>
         <v>359</v>
       </c>
@@ -9859,7 +9870,7 @@
       <c r="E115" s="40"/>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
-      <c r="H115" s="48"/>
+      <c r="H115" s="47"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -9881,7 +9892,7 @@
       <c r="U115" s="40"/>
       <c r="V115" s="40"/>
       <c r="W115" s="40"/>
-      <c r="X115" s="48"/>
+      <c r="X115" s="47"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
@@ -9905,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="AK115" s="40"/>
-      <c r="AL115" s="48"/>
+      <c r="AL115" s="47"/>
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
@@ -10355,7 +10366,7 @@
       <c r="A124" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B124" s="49" t="s">
+      <c r="B124" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -10382,7 +10393,7 @@
       <c r="Q124" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R124" s="49" t="s">
+      <c r="R124" s="48" t="s">
         <v>81</v>
       </c>
       <c r="S124" s="2" t="s">
@@ -10407,7 +10418,7 @@
       <c r="AE124" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AF124" s="49" t="s">
+      <c r="AF124" s="48" t="s">
         <v>81</v>
       </c>
       <c r="AG124" s="2" t="s">
@@ -10430,7 +10441,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
       <c r="A125" s="2"/>
-      <c r="B125" s="49"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
@@ -10453,7 +10464,7 @@
       <c r="O125" s="3"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
-      <c r="R125" s="49"/>
+      <c r="R125" s="48"/>
       <c r="S125" s="2" t="s">
         <v>11</v>
       </c>
@@ -10474,7 +10485,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
-      <c r="AF125" s="49"/>
+      <c r="AF125" s="48"/>
       <c r="AG125" s="2" t="s">
         <v>11</v>
       </c>
@@ -11445,10 +11456,10 @@
       <c r="T140" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U140" s="50" t="s">
+      <c r="U140" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="V140" s="50" t="s">
+      <c r="V140" s="49" t="s">
         <v>73</v>
       </c>
       <c r="W140" s="2" t="s">
@@ -11524,11 +11535,11 @@
         <f aca="false">R141*S141</f>
         <v>420</v>
       </c>
-      <c r="U141" s="47" t="n">
+      <c r="U141" s="0" t="n">
         <f aca="false">T128+T134</f>
         <v>5</v>
       </c>
-      <c r="V141" s="47" t="n">
+      <c r="V141" s="0" t="n">
         <f aca="false">S154</f>
         <v>5</v>
       </c>
@@ -11609,11 +11620,11 @@
         <f aca="false">R142*S142</f>
         <v>340</v>
       </c>
-      <c r="U142" s="47" t="n">
+      <c r="U142" s="0" t="n">
         <f aca="false">T123</f>
         <v>4</v>
       </c>
-      <c r="V142" s="47" t="n">
+      <c r="V142" s="0" t="n">
         <f aca="false">S158</f>
         <v>4</v>
       </c>
@@ -12397,24 +12408,24 @@
       <c r="AE153" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AF153" s="51" t="s">
+      <c r="AF153" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AG153" s="51" t="n">
+      <c r="AG153" s="50" t="n">
         <f aca="false">S153-C153</f>
         <v>0</v>
       </c>
-      <c r="AH153" s="51" t="n">
+      <c r="AH153" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="AI153" s="51" t="s">
+      <c r="AI153" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AJ153" s="51" t="n">
+      <c r="AJ153" s="50" t="n">
         <f aca="false">V153-F153</f>
         <v>0</v>
       </c>
-      <c r="AK153" s="51" t="n">
+      <c r="AK153" s="50" t="n">
         <v>8</v>
       </c>
       <c r="AL153" s="11" t="n">
@@ -14196,27 +14207,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="174">
       <c r="A174" s="2"/>
-      <c r="B174" s="52" t="n">
+      <c r="B174" s="51" t="n">
         <f aca="false">SUM(B167:B173)</f>
         <v>58</v>
       </c>
-      <c r="C174" s="52" t="n">
+      <c r="C174" s="51" t="n">
         <f aca="false">SUM(C167:C173)</f>
         <v>54</v>
       </c>
-      <c r="D174" s="52" t="n">
+      <c r="D174" s="51" t="n">
         <f aca="false">SUM(D167:D173)</f>
         <v>30</v>
       </c>
-      <c r="E174" s="52" t="n">
+      <c r="E174" s="51" t="n">
         <f aca="false">SUM(E167:E173)</f>
         <v>220</v>
       </c>
-      <c r="F174" s="52" t="n">
+      <c r="F174" s="51" t="n">
         <f aca="false">SUM(F167:F173)</f>
         <v>127</v>
       </c>
-      <c r="G174" s="52" t="n">
+      <c r="G174" s="51" t="n">
         <f aca="false">SUM(G167:G173)</f>
         <v>205</v>
       </c>
@@ -14229,27 +14240,27 @@
       <c r="O174" s="3"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
-      <c r="R174" s="52" t="n">
+      <c r="R174" s="51" t="n">
         <f aca="false">SUM(R167:R173)</f>
         <v>55</v>
       </c>
-      <c r="S174" s="52" t="n">
+      <c r="S174" s="51" t="n">
         <f aca="false">SUM(S167:S173)</f>
         <v>48</v>
       </c>
-      <c r="T174" s="52" t="n">
+      <c r="T174" s="51" t="n">
         <f aca="false">SUM(T167:T173)</f>
         <v>30</v>
       </c>
-      <c r="U174" s="52" t="n">
+      <c r="U174" s="51" t="n">
         <f aca="false">SUM(U167:U173)</f>
         <v>225</v>
       </c>
-      <c r="V174" s="52" t="n">
+      <c r="V174" s="51" t="n">
         <f aca="false">SUM(V167:V173)</f>
         <v>127</v>
       </c>
-      <c r="W174" s="52" t="n">
+      <c r="W174" s="51" t="n">
         <f aca="false">SUM(W167:W173)</f>
         <v>215</v>
       </c>
@@ -14264,27 +14275,27 @@
       <c r="AC174" s="3"/>
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
-      <c r="AF174" s="52" t="n">
+      <c r="AF174" s="51" t="n">
         <f aca="false">R174-B174</f>
         <v>-3</v>
       </c>
-      <c r="AG174" s="52" t="n">
+      <c r="AG174" s="51" t="n">
         <f aca="false">S174-C174</f>
         <v>-6</v>
       </c>
-      <c r="AH174" s="52" t="n">
+      <c r="AH174" s="51" t="n">
         <f aca="false">T174-D174</f>
         <v>0</v>
       </c>
-      <c r="AI174" s="52" t="n">
+      <c r="AI174" s="51" t="n">
         <f aca="false">U174-E174</f>
         <v>5</v>
       </c>
-      <c r="AJ174" s="52" t="n">
+      <c r="AJ174" s="51" t="n">
         <f aca="false">V174-F174</f>
         <v>0</v>
       </c>
-      <c r="AK174" s="52" t="n">
+      <c r="AK174" s="51" t="n">
         <f aca="false">W174-G174</f>
         <v>10</v>
       </c>
@@ -14295,10 +14306,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="175">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="53" t="s">
+      <c r="C175" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D175" s="53"/>
+      <c r="D175" s="52"/>
       <c r="E175" s="2" t="n">
         <f aca="false">H161+H116+L37</f>
         <v>694</v>
@@ -14321,10 +14332,10 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
-      <c r="S175" s="53" t="s">
+      <c r="S175" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="T175" s="53"/>
+      <c r="T175" s="52"/>
       <c r="U175" s="2" t="n">
         <f aca="false">R48+R98+R147</f>
         <v>700</v>
@@ -14342,10 +14353,10 @@
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
-      <c r="AG175" s="52" t="s">
+      <c r="AG175" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AH175" s="52"/>
+      <c r="AH175" s="51"/>
       <c r="AI175" s="2" t="n">
         <f aca="false">U175-E175</f>
         <v>6</v>
@@ -14455,7 +14466,7 @@
       <c r="A178" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B178" s="54" t="n">
+      <c r="B178" s="53" t="n">
         <v>0</v>
       </c>
       <c r="C178" s="2"/>
@@ -14475,7 +14486,7 @@
       <c r="Q178" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="R178" s="55" t="n">
+      <c r="R178" s="54" t="n">
         <v>0</v>
       </c>
       <c r="S178" s="2"/>
@@ -14493,7 +14504,7 @@
       <c r="AE178" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF178" s="54" t="n">
+      <c r="AF178" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AG178" s="2"/>
@@ -14510,7 +14521,7 @@
       <c r="A179" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B179" s="54" t="n">
+      <c r="B179" s="53" t="n">
         <f aca="false">D48</f>
         <v>3939</v>
       </c>
@@ -14531,7 +14542,7 @@
       <c r="Q179" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R179" s="55" t="n">
+      <c r="R179" s="54" t="n">
         <f aca="false">T48</f>
         <v>4159</v>
       </c>
@@ -14550,7 +14561,7 @@
       <c r="AE179" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AF179" s="54" t="inlineStr">
+      <c r="AF179" s="53" t="inlineStr">
         <f aca="false">R179-B179</f>
         <is>
           <t/>
@@ -14570,7 +14581,7 @@
       <c r="A180" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B180" s="54" t="n">
+      <c r="B180" s="53" t="n">
         <f aca="false">D98</f>
         <v>6814</v>
       </c>
@@ -14591,7 +14602,7 @@
       <c r="Q180" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="R180" s="55" t="n">
+      <c r="R180" s="54" t="n">
         <f aca="false">T98</f>
         <v>6623</v>
       </c>
@@ -14610,7 +14621,7 @@
       <c r="AE180" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF180" s="54" t="inlineStr">
+      <c r="AF180" s="53" t="inlineStr">
         <f aca="false">R180-B180</f>
         <is>
           <t/>
@@ -14630,7 +14641,7 @@
       <c r="A181" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B181" s="54" t="n">
+      <c r="B181" s="53" t="n">
         <f aca="false">D147</f>
         <v>2637</v>
       </c>
@@ -14651,7 +14662,7 @@
       <c r="Q181" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="R181" s="55" t="n">
+      <c r="R181" s="54" t="n">
         <f aca="false">T147</f>
         <v>2658</v>
       </c>
@@ -14670,7 +14681,7 @@
       <c r="AE181" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AF181" s="54" t="inlineStr">
+      <c r="AF181" s="53" t="inlineStr">
         <f aca="false">R181-B181</f>
         <is>
           <t/>
@@ -14690,7 +14701,7 @@
       <c r="A182" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B182" s="54" t="inlineStr">
+      <c r="B182" s="53" t="inlineStr">
         <f aca="false">SUM(B178:B181)</f>
         <is>
           <t/>
@@ -14713,7 +14724,7 @@
       <c r="Q182" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R182" s="55" t="inlineStr">
+      <c r="R182" s="54" t="inlineStr">
         <f aca="false">SUM(R178:R181)</f>
         <is>
           <t/>
@@ -14734,7 +14745,7 @@
       <c r="AE182" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF182" s="54" t="inlineStr">
+      <c r="AF182" s="53" t="inlineStr">
         <f aca="false">SUM(AF178:AF181)</f>
         <is>
           <t/>
@@ -14881,14 +14892,14 @@
       <c r="A186" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="47" t="n">
+      <c r="B186" s="0" t="n">
         <f aca="false">B174</f>
         <v>58</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D186" s="47" t="n">
+      <c r="D186" s="0" t="n">
         <f aca="false">B186*C186</f>
         <v>1740</v>
       </c>
@@ -14896,14 +14907,14 @@
       <c r="Q186" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="R186" s="47" t="n">
+      <c r="R186" s="0" t="n">
         <f aca="false">SUM(R174)</f>
         <v>55</v>
       </c>
       <c r="S186" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="T186" s="47" t="n">
+      <c r="T186" s="0" t="n">
         <f aca="false">R186*S186</f>
         <v>1650</v>
       </c>
@@ -14911,14 +14922,14 @@
       <c r="AE186" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AF186" s="47" t="n">
+      <c r="AF186" s="0" t="n">
         <f aca="false">R186-B186</f>
         <v>-3</v>
       </c>
       <c r="AG186" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AH186" s="47" t="n">
+      <c r="AH186" s="0" t="n">
         <f aca="false">AF186*AG186</f>
         <v>-90</v>
       </c>
@@ -14927,14 +14938,14 @@
       <c r="A187" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B187" s="47" t="n">
+      <c r="B187" s="0" t="n">
         <f aca="false">C174</f>
         <v>54</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D187" s="47" t="n">
+      <c r="D187" s="0" t="n">
         <f aca="false">B187*C187</f>
         <v>1080</v>
       </c>
@@ -14942,14 +14953,14 @@
       <c r="Q187" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="R187" s="47" t="n">
+      <c r="R187" s="0" t="n">
         <f aca="false">S174</f>
         <v>48</v>
       </c>
       <c r="S187" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="T187" s="47" t="n">
+      <c r="T187" s="0" t="n">
         <f aca="false">R187*S187</f>
         <v>960</v>
       </c>
@@ -14957,14 +14968,14 @@
       <c r="AE187" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AF187" s="47" t="n">
+      <c r="AF187" s="0" t="n">
         <f aca="false">R187-B187</f>
         <v>-6</v>
       </c>
       <c r="AG187" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AH187" s="47" t="n">
+      <c r="AH187" s="0" t="n">
         <f aca="false">AF187*AG187</f>
         <v>-120</v>
       </c>
@@ -14973,14 +14984,14 @@
       <c r="A188" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B188" s="47" t="n">
+      <c r="B188" s="0" t="n">
         <f aca="false">D174</f>
         <v>30</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D188" s="47" t="n">
+      <c r="D188" s="0" t="n">
         <f aca="false">B188*C188</f>
         <v>750</v>
       </c>
@@ -14988,14 +14999,14 @@
       <c r="Q188" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R188" s="47" t="n">
+      <c r="R188" s="0" t="n">
         <f aca="false">T174</f>
         <v>30</v>
       </c>
       <c r="S188" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="T188" s="47" t="n">
+      <c r="T188" s="0" t="n">
         <f aca="false">R188*S188</f>
         <v>750</v>
       </c>
@@ -15003,14 +15014,14 @@
       <c r="AE188" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AF188" s="47" t="n">
+      <c r="AF188" s="0" t="n">
         <f aca="false">R188-B188</f>
         <v>0</v>
       </c>
       <c r="AG188" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AH188" s="47" t="n">
+      <c r="AH188" s="0" t="n">
         <f aca="false">AF188*AG188</f>
         <v>0</v>
       </c>
@@ -15019,14 +15030,14 @@
       <c r="A189" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B189" s="47" t="n">
+      <c r="B189" s="0" t="n">
         <f aca="false">E174</f>
         <v>220</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D189" s="47" t="n">
+      <c r="D189" s="0" t="n">
         <f aca="false">B189*C189</f>
         <v>4840</v>
       </c>
@@ -15034,14 +15045,14 @@
       <c r="Q189" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="R189" s="47" t="n">
+      <c r="R189" s="0" t="n">
         <f aca="false">U174</f>
         <v>225</v>
       </c>
       <c r="S189" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="T189" s="47" t="n">
+      <c r="T189" s="0" t="n">
         <f aca="false">R189*S189</f>
         <v>4950</v>
       </c>
@@ -15049,14 +15060,14 @@
       <c r="AE189" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AF189" s="47" t="n">
+      <c r="AF189" s="0" t="n">
         <f aca="false">R189-B189</f>
         <v>5</v>
       </c>
       <c r="AG189" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AH189" s="47" t="n">
+      <c r="AH189" s="0" t="n">
         <f aca="false">AF189*AG189</f>
         <v>110</v>
       </c>
@@ -15065,14 +15076,14 @@
       <c r="A190" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B190" s="47" t="n">
+      <c r="B190" s="0" t="n">
         <f aca="false">F174</f>
         <v>127</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D190" s="47" t="n">
+      <c r="D190" s="0" t="n">
         <f aca="false">B190*C190</f>
         <v>1905</v>
       </c>
@@ -15080,14 +15091,14 @@
       <c r="Q190" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="R190" s="47" t="n">
+      <c r="R190" s="0" t="n">
         <f aca="false">V174</f>
         <v>127</v>
       </c>
       <c r="S190" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="T190" s="47" t="n">
+      <c r="T190" s="0" t="n">
         <f aca="false">R190*S190</f>
         <v>1905</v>
       </c>
@@ -15095,14 +15106,14 @@
       <c r="AE190" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AF190" s="47" t="n">
+      <c r="AF190" s="0" t="n">
         <f aca="false">R190-B190</f>
         <v>0</v>
       </c>
       <c r="AG190" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AH190" s="47" t="n">
+      <c r="AH190" s="0" t="n">
         <f aca="false">AF190*AG190</f>
         <v>0</v>
       </c>
@@ -15111,14 +15122,14 @@
       <c r="A191" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B191" s="47" t="n">
+      <c r="B191" s="0" t="n">
         <f aca="false">G174</f>
         <v>205</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D191" s="47" t="n">
+      <c r="D191" s="0" t="n">
         <f aca="false">B191*C191</f>
         <v>3075</v>
       </c>
@@ -15126,14 +15137,14 @@
       <c r="Q191" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="R191" s="47" t="n">
+      <c r="R191" s="0" t="n">
         <f aca="false">W174</f>
         <v>215</v>
       </c>
       <c r="S191" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="T191" s="47" t="n">
+      <c r="T191" s="0" t="n">
         <f aca="false">R191*S191</f>
         <v>3225</v>
       </c>
@@ -15141,14 +15152,14 @@
       <c r="AE191" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AF191" s="47" t="n">
+      <c r="AF191" s="0" t="n">
         <f aca="false">R191-B191</f>
         <v>10</v>
       </c>
       <c r="AG191" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AH191" s="47" t="n">
+      <c r="AH191" s="0" t="n">
         <f aca="false">AF191*AG191</f>
         <v>150</v>
       </c>
@@ -15157,11 +15168,11 @@
       <c r="A192" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B192" s="47" t="n">
+      <c r="B192" s="0" t="n">
         <f aca="false">SUM(B186:B191)</f>
         <v>694</v>
       </c>
-      <c r="D192" s="47" t="n">
+      <c r="D192" s="0" t="n">
         <f aca="false">SUM(D186:D191)</f>
         <v>13390</v>
       </c>
@@ -15169,11 +15180,11 @@
       <c r="Q192" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="R192" s="47" t="n">
+      <c r="R192" s="0" t="n">
         <f aca="false">SUM(R186:R191)</f>
         <v>700</v>
       </c>
-      <c r="T192" s="47" t="n">
+      <c r="T192" s="0" t="n">
         <f aca="false">SUM(T186:T191)</f>
         <v>13440</v>
       </c>
@@ -15181,11 +15192,11 @@
       <c r="AE192" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AF192" s="47" t="n">
+      <c r="AF192" s="0" t="n">
         <f aca="false">R192-B192</f>
         <v>6</v>
       </c>
-      <c r="AH192" s="47" t="n">
+      <c r="AH192" s="0" t="n">
         <f aca="false">SUM(AH186:AH191)</f>
         <v>50</v>
       </c>
@@ -15205,13 +15216,13 @@
       <c r="A196" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B196" s="56" t="inlineStr">
+      <c r="B196" s="55" t="inlineStr">
         <f aca="false">B179</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C196" s="56" t="inlineStr">
+      <c r="C196" s="55" t="inlineStr">
         <f aca="false">R179</f>
         <is>
           <t/>
@@ -15219,7 +15230,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
-      <c r="D197" s="56" t="inlineStr">
+      <c r="D197" s="55" t="inlineStr">
         <f aca="false">B182</f>
         <is>
           <t/>
@@ -15320,10 +15331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ200"/>
+  <dimension ref="A1:AQ204"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="AF138" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AN157" activeCellId="0" pane="topLeft" sqref="AN157"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="Q153" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="V153" activeCellId="0" pane="topLeft" sqref="V153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15356,7 +15367,7 @@
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="31.9285714285714"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.3163265306122"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="11.2857142857143"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="14.7244897959184"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.2908163265306"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="14.1479591836735"/>
@@ -15434,10 +15445,10 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="56"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -16633,7 +16644,7 @@
       <c r="L26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="3"/>
       <c r="P26" s="12" t="s">
         <v>28</v>
@@ -16696,7 +16707,7 @@
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="48"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="3"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="11" t="s">
@@ -16772,7 +16783,7 @@
         <f aca="false">C28+F28+I28</f>
         <v>22</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="3"/>
       <c r="P28" s="19" t="s">
         <v>34</v>
@@ -16853,7 +16864,7 @@
         <f aca="false">C29+F29+I29</f>
         <v>27</v>
       </c>
-      <c r="M29" s="48"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="3"/>
       <c r="P29" s="21" t="s">
         <v>35</v>
@@ -16934,7 +16945,7 @@
         <f aca="false">C30+F30+I30</f>
         <v>26</v>
       </c>
-      <c r="M30" s="48"/>
+      <c r="M30" s="47"/>
       <c r="N30" s="3"/>
       <c r="P30" s="23" t="s">
         <v>38</v>
@@ -17015,7 +17026,7 @@
         <f aca="false">C31+F31+I31+I32</f>
         <v>27</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="3"/>
       <c r="P31" s="26" t="s">
         <v>40</v>
@@ -17079,7 +17090,7 @@
       </c>
       <c r="K32" s="28"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="48"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="3"/>
       <c r="P32" s="31"/>
       <c r="Q32" s="31"/>
@@ -17143,7 +17154,7 @@
         <f aca="false">C33+F33+I33</f>
         <v>28</v>
       </c>
-      <c r="M33" s="48"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="3"/>
       <c r="P33" s="32" t="s">
         <v>41</v>
@@ -17224,7 +17235,7 @@
         <f aca="false">C34+F34+I34</f>
         <v>27</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="47"/>
       <c r="N34" s="3"/>
       <c r="P34" s="36" t="s">
         <v>43</v>
@@ -17305,7 +17316,7 @@
         <f aca="false">C35+F35+I35</f>
         <v>23</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="3"/>
       <c r="P35" s="40" t="s">
         <v>44</v>
@@ -17978,10 +17989,10 @@
       <c r="N49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="58" t="s">
+      <c r="AD49" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="AE49" s="58"/>
+      <c r="AE49" s="57"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -18026,11 +18037,11 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="3"/>
-      <c r="P51" s="59" t="s">
+      <c r="P51" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -18069,10 +18080,10 @@
       <c r="W52" s="2"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="60" t="s">
+      <c r="AD52" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AE52" s="60"/>
+      <c r="AE52" s="59"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
@@ -20101,10 +20112,10 @@
       <c r="W89" s="2"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="57" t="s">
+      <c r="AD89" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AE89" s="57"/>
+      <c r="AE89" s="56"/>
       <c r="AF89" s="2"/>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
@@ -20260,15 +20271,15 @@
         <f aca="false">S59+S63+S67+S71+S83</f>
         <v>9</v>
       </c>
-      <c r="U92" s="47" t="n">
+      <c r="U92" s="0" t="n">
         <f aca="false">R107</f>
         <v>9</v>
       </c>
-      <c r="V92" s="47" t="n">
+      <c r="V92" s="0" t="n">
         <f aca="false">T74+T77+T81++T83+T84</f>
         <v>16</v>
       </c>
-      <c r="W92" s="47" t="n">
+      <c r="W92" s="0" t="n">
         <f aca="false">U109</f>
         <v>16</v>
       </c>
@@ -20336,15 +20347,15 @@
         <f aca="false">S58</f>
         <v>6</v>
       </c>
-      <c r="U93" s="47" t="n">
+      <c r="U93" s="0" t="n">
         <f aca="false">R114</f>
         <v>6</v>
       </c>
-      <c r="V93" s="47" t="n">
+      <c r="V93" s="0" t="n">
         <f aca="false">T80+T85</f>
         <v>7</v>
       </c>
-      <c r="W93" s="47" t="n">
+      <c r="W93" s="0" t="n">
         <f aca="false">U104</f>
         <v>7</v>
       </c>
@@ -20482,15 +20493,15 @@
         <f aca="false">S60+S64+S68</f>
         <v>91</v>
       </c>
-      <c r="U95" s="47" t="n">
+      <c r="U95" s="0" t="n">
         <f aca="false">R104+R106+R110+R113</f>
         <v>91</v>
       </c>
-      <c r="V95" s="47" t="n">
+      <c r="V95" s="0" t="n">
         <f aca="false">T78</f>
         <v>12</v>
       </c>
-      <c r="W95" s="47" t="n">
+      <c r="W95" s="0" t="n">
         <f aca="false">U110</f>
         <v>12</v>
       </c>
@@ -20558,15 +20569,15 @@
         <f aca="false">S72</f>
         <v>42</v>
       </c>
-      <c r="U96" s="47" t="n">
+      <c r="U96" s="0" t="n">
         <f aca="false">R108+R109+R111</f>
         <v>42</v>
       </c>
-      <c r="V96" s="47" t="n">
+      <c r="V96" s="0" t="n">
         <f aca="false">T72+T75</f>
         <v>74</v>
       </c>
-      <c r="W96" s="47" t="n">
+      <c r="W96" s="0" t="n">
         <f aca="false">U106+U107+U113+U115</f>
         <v>74</v>
       </c>
@@ -20634,15 +20645,15 @@
         <f aca="false">S62+S66+S70+S82</f>
         <v>57</v>
       </c>
-      <c r="U97" s="47" t="n">
+      <c r="U97" s="0" t="n">
         <f aca="false">R105+R112+R115</f>
         <v>57</v>
       </c>
-      <c r="V97" s="47" t="n">
+      <c r="V97" s="0" t="n">
         <f aca="false">T73+T76+T79+T82</f>
         <v>54</v>
       </c>
-      <c r="W97" s="47" t="n">
+      <c r="W97" s="0" t="n">
         <f aca="false">U105+U111+U114+U108</f>
         <v>54</v>
       </c>
@@ -20897,13 +20908,13 @@
       <c r="AE102" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AF102" s="61"/>
-      <c r="AG102" s="62"/>
+      <c r="AF102" s="60"/>
+      <c r="AG102" s="61"/>
       <c r="AH102" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AI102" s="61"/>
-      <c r="AJ102" s="62"/>
+      <c r="AI102" s="60"/>
+      <c r="AJ102" s="61"/>
       <c r="AK102" s="11" t="s">
         <v>32</v>
       </c>
@@ -21039,7 +21050,7 @@
         <f aca="false">R104+U104+R105+U105</f>
         <v>56</v>
       </c>
-      <c r="X104" s="47" t="n">
+      <c r="X104" s="0" t="n">
         <f aca="false">W169</f>
         <v>105</v>
       </c>
@@ -21209,7 +21220,7 @@
         <f aca="false">R106+U106</f>
         <v>51</v>
       </c>
-      <c r="X106" s="47" t="n">
+      <c r="X106" s="0" t="n">
         <f aca="false">W170</f>
         <v>105</v>
       </c>
@@ -21304,7 +21315,7 @@
         <f aca="false">R107+R108+U107+U108</f>
         <v>49</v>
       </c>
-      <c r="X107" s="47" t="n">
+      <c r="X107" s="0" t="n">
         <f aca="false">W171</f>
         <v>105</v>
       </c>
@@ -21440,7 +21451,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="3"/>
-      <c r="P109" s="63" t="s">
+      <c r="P109" s="62" t="s">
         <v>40</v>
       </c>
       <c r="Q109" s="26" t="s">
@@ -21465,7 +21476,7 @@
         <f aca="false">R109+R110+U109+U110</f>
         <v>53</v>
       </c>
-      <c r="X109" s="47" t="n">
+      <c r="X109" s="0" t="n">
         <f aca="false">W172</f>
         <v>105</v>
       </c>
@@ -21529,7 +21540,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="3"/>
-      <c r="P110" s="63"/>
+      <c r="P110" s="62"/>
       <c r="Q110" s="31" t="s">
         <v>19</v>
       </c>
@@ -21636,7 +21647,7 @@
         <f aca="false">R111+R112+U111</f>
         <v>58</v>
       </c>
-      <c r="X111" s="47" t="n">
+      <c r="X111" s="0" t="n">
         <f aca="false">W173</f>
         <v>105</v>
       </c>
@@ -21786,7 +21797,7 @@
         <f aca="false">R113+U113</f>
         <v>47</v>
       </c>
-      <c r="X113" s="47" t="n">
+      <c r="X113" s="0" t="n">
         <f aca="false">W174</f>
         <v>105</v>
       </c>
@@ -21881,7 +21892,7 @@
         <f aca="false">R114+R115+U114+U115</f>
         <v>54</v>
       </c>
-      <c r="X114" s="47" t="n">
+      <c r="X114" s="0" t="n">
         <f aca="false">W175</f>
         <v>105</v>
       </c>
@@ -21932,7 +21943,7 @@
       <c r="E115" s="40"/>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
-      <c r="H115" s="48"/>
+      <c r="H115" s="47"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -21958,7 +21969,7 @@
       <c r="V115" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="W115" s="48"/>
+      <c r="W115" s="47"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="40"/>
@@ -21972,7 +21983,7 @@
       <c r="AG115" s="42" t="n">
         <v>4.6</v>
       </c>
-      <c r="AH115" s="64" t="s">
+      <c r="AH115" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AI115" s="42" t="n">
@@ -21982,7 +21993,7 @@
       <c r="AJ115" s="42" t="n">
         <v>11</v>
       </c>
-      <c r="AK115" s="48"/>
+      <c r="AK115" s="47"/>
       <c r="AL115" s="2"/>
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
@@ -22136,10 +22147,10 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="3"/>
-      <c r="P119" s="59" t="s">
+      <c r="P119" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="Q119" s="59"/>
+      <c r="Q119" s="58"/>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
@@ -22148,10 +22159,10 @@
       <c r="W119" s="2"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="59" t="s">
+      <c r="AD119" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AE119" s="59"/>
+      <c r="AE119" s="58"/>
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
@@ -22400,7 +22411,7 @@
       <c r="AD125" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AE125" s="49" t="s">
+      <c r="AE125" s="48" t="s">
         <v>81</v>
       </c>
       <c r="AF125" s="2" t="s">
@@ -22422,7 +22433,7 @@
       <c r="A126" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -22447,7 +22458,7 @@
       <c r="P126" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Q126" s="49" t="s">
+      <c r="Q126" s="48" t="s">
         <v>81</v>
       </c>
       <c r="R126" s="2" t="s">
@@ -22466,7 +22477,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
-      <c r="AE126" s="49"/>
+      <c r="AE126" s="48"/>
       <c r="AF126" s="2" t="s">
         <v>11</v>
       </c>
@@ -22484,7 +22495,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
       <c r="A127" s="2"/>
-      <c r="B127" s="49"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
@@ -22505,7 +22516,7 @@
       <c r="M127" s="2"/>
       <c r="N127" s="3"/>
       <c r="P127" s="2"/>
-      <c r="Q127" s="49"/>
+      <c r="Q127" s="48"/>
       <c r="R127" s="2" t="s">
         <v>11</v>
       </c>
@@ -24175,7 +24186,7 @@
         <f aca="false">R154+U154</f>
         <v>27</v>
       </c>
-      <c r="X154" s="47" t="n">
+      <c r="X154" s="0" t="n">
         <f aca="false">W169</f>
         <v>105</v>
       </c>
@@ -24273,7 +24284,7 @@
         <f aca="false">R155+U155+R156</f>
         <v>22</v>
       </c>
-      <c r="X155" s="47" t="n">
+      <c r="X155" s="0" t="n">
         <f aca="false">W170</f>
         <v>105</v>
       </c>
@@ -24402,7 +24413,7 @@
         <f aca="false">R157+U157</f>
         <v>25</v>
       </c>
-      <c r="X157" s="47" t="n">
+      <c r="X157" s="0" t="n">
         <f aca="false">W171</f>
         <v>105</v>
       </c>
@@ -24500,7 +24511,7 @@
         <f aca="false">R158+U158</f>
         <v>25</v>
       </c>
-      <c r="X158" s="47" t="n">
+      <c r="X158" s="0" t="n">
         <f aca="false">W172</f>
         <v>105</v>
       </c>
@@ -24597,7 +24608,7 @@
         <f aca="false">R159+U159</f>
         <v>19</v>
       </c>
-      <c r="X159" s="47" t="n">
+      <c r="X159" s="0" t="n">
         <f aca="false">W173</f>
         <v>105</v>
       </c>
@@ -24694,7 +24705,7 @@
         <f aca="false">R160+R161+U160</f>
         <v>31</v>
       </c>
-      <c r="X160" s="47" t="n">
+      <c r="X160" s="0" t="n">
         <f aca="false">W174</f>
         <v>105</v>
       </c>
@@ -24856,7 +24867,7 @@
         <f aca="false">R162+U162</f>
         <v>28</v>
       </c>
-      <c r="X162" s="47" t="n">
+      <c r="X162" s="0" t="n">
         <f aca="false">W175</f>
         <v>105</v>
       </c>
@@ -25966,27 +25977,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="176">
       <c r="A176" s="2"/>
-      <c r="B176" s="47" t="n">
+      <c r="B176" s="0" t="n">
         <f aca="false">SUM(B169:B175)</f>
         <v>58</v>
       </c>
-      <c r="C176" s="47" t="n">
+      <c r="C176" s="0" t="n">
         <f aca="false">SUM(C169:C175)</f>
         <v>54</v>
       </c>
-      <c r="D176" s="47" t="n">
+      <c r="D176" s="0" t="n">
         <f aca="false">SUM(D169:D175)</f>
         <v>30</v>
       </c>
-      <c r="E176" s="47" t="n">
+      <c r="E176" s="0" t="n">
         <f aca="false">SUM(E169:E175)</f>
         <v>220</v>
       </c>
-      <c r="F176" s="47" t="n">
+      <c r="F176" s="0" t="n">
         <f aca="false">SUM(F169:F175)</f>
         <v>127</v>
       </c>
-      <c r="G176" s="47" t="n">
+      <c r="G176" s="0" t="n">
         <f aca="false">SUM(G169:G175)</f>
         <v>205</v>
       </c>
@@ -25998,27 +26009,27 @@
       <c r="M176" s="2"/>
       <c r="N176" s="3"/>
       <c r="P176" s="2"/>
-      <c r="Q176" s="52" t="n">
+      <c r="Q176" s="51" t="n">
         <f aca="false">SUM(Q169:Q175)</f>
         <v>54</v>
       </c>
-      <c r="R176" s="52" t="n">
+      <c r="R176" s="51" t="n">
         <f aca="false">SUM(R169:R175)</f>
         <v>46</v>
       </c>
-      <c r="S176" s="52" t="n">
+      <c r="S176" s="51" t="n">
         <f aca="false">SUM(S169:S175)</f>
         <v>30</v>
       </c>
-      <c r="T176" s="52" t="n">
+      <c r="T176" s="51" t="n">
         <f aca="false">SUM(T169:T175)</f>
         <v>208</v>
       </c>
-      <c r="U176" s="52" t="n">
+      <c r="U176" s="51" t="n">
         <f aca="false">SUM(U169:U175)</f>
         <v>156</v>
       </c>
-      <c r="V176" s="52" t="n">
+      <c r="V176" s="51" t="n">
         <f aca="false">SUM(V169:V175)</f>
         <v>241</v>
       </c>
@@ -26026,31 +26037,31 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
-      <c r="AE176" s="47" t="n">
+      <c r="AE176" s="0" t="n">
         <f aca="false">Q176-B176</f>
         <v>-4</v>
       </c>
-      <c r="AF176" s="47" t="n">
+      <c r="AF176" s="0" t="n">
         <f aca="false">R176-C176</f>
         <v>-8</v>
       </c>
-      <c r="AG176" s="47" t="n">
+      <c r="AG176" s="0" t="n">
         <f aca="false">S176-D176</f>
         <v>0</v>
       </c>
-      <c r="AH176" s="47" t="n">
+      <c r="AH176" s="0" t="n">
         <f aca="false">T176-E176</f>
         <v>-12</v>
       </c>
-      <c r="AI176" s="47" t="n">
+      <c r="AI176" s="0" t="n">
         <f aca="false">U176-F176</f>
         <v>29</v>
       </c>
-      <c r="AJ176" s="47" t="n">
+      <c r="AJ176" s="0" t="n">
         <f aca="false">V176-G176</f>
         <v>36</v>
       </c>
-      <c r="AK176" s="47" t="n">
+      <c r="AK176" s="0" t="n">
         <f aca="false">W176-H176</f>
         <v>0</v>
       </c>
@@ -26075,11 +26086,11 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
-      <c r="AE177" s="52"/>
-      <c r="AF177" s="52" t="s">
+      <c r="AE177" s="51"/>
+      <c r="AF177" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AG177" s="52"/>
+      <c r="AG177" s="51"/>
       <c r="AH177" s="2" t="n">
         <f aca="false">T178-E178</f>
         <v>41</v>
@@ -26101,11 +26112,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="178">
       <c r="A178" s="2"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="52" t="s">
+      <c r="B178" s="51"/>
+      <c r="C178" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D178" s="52"/>
+      <c r="D178" s="51"/>
       <c r="E178" s="2" t="n">
         <f aca="false">G22+F86+F137</f>
         <v>694</v>
@@ -26126,10 +26137,10 @@
       <c r="N178" s="3"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
-      <c r="R178" s="53" t="s">
+      <c r="R178" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="S178" s="53"/>
+      <c r="S178" s="52"/>
       <c r="T178" s="2" t="n">
         <f aca="false">Q48+Q98+Q148</f>
         <v>735</v>
@@ -26223,7 +26234,7 @@
       <c r="P180" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q180" s="55" t="n">
+      <c r="Q180" s="54" t="n">
         <v>0</v>
       </c>
       <c r="R180" s="2"/>
@@ -26238,7 +26249,7 @@
       <c r="AD180" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE180" s="54" t="inlineStr">
+      <c r="AE180" s="53" t="inlineStr">
         <f aca="false">Q180-B181</f>
         <is>
           <t/>
@@ -26261,7 +26272,7 @@
       <c r="A181" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B181" s="54" t="n">
+      <c r="B181" s="53" t="n">
         <v>0</v>
       </c>
       <c r="C181" s="2"/>
@@ -26279,7 +26290,7 @@
       <c r="P181" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q181" s="55" t="n">
+      <c r="Q181" s="54" t="n">
         <f aca="false">S48</f>
         <v>4159</v>
       </c>
@@ -26295,7 +26306,7 @@
       <c r="AD181" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AE181" s="54" t="inlineStr">
+      <c r="AE181" s="53" t="inlineStr">
         <f aca="false">Q181-B182</f>
         <is>
           <t/>
@@ -26318,7 +26329,7 @@
       <c r="A182" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B182" s="54" t="n">
+      <c r="B182" s="53" t="n">
         <f aca="false">D48</f>
         <v>3939</v>
       </c>
@@ -26337,7 +26348,7 @@
       <c r="P182" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q182" s="55" t="n">
+      <c r="Q182" s="54" t="n">
         <f aca="false">S98</f>
         <v>6681</v>
       </c>
@@ -26353,7 +26364,7 @@
       <c r="AD182" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE182" s="54" t="inlineStr">
+      <c r="AE182" s="53" t="inlineStr">
         <f aca="false">Q182-B183</f>
         <is>
           <t/>
@@ -26376,7 +26387,7 @@
       <c r="A183" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B183" s="54" t="n">
+      <c r="B183" s="53" t="n">
         <f aca="false">D98</f>
         <v>6814</v>
       </c>
@@ -26395,7 +26406,7 @@
       <c r="P183" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q183" s="55" t="n">
+      <c r="Q183" s="54" t="n">
         <f aca="false">S148</f>
         <v>2981</v>
       </c>
@@ -26411,7 +26422,7 @@
       <c r="AD183" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE183" s="54" t="inlineStr">
+      <c r="AE183" s="53" t="inlineStr">
         <f aca="false">Q183-B184</f>
         <is>
           <t/>
@@ -26434,7 +26445,7 @@
       <c r="A184" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B184" s="54" t="n">
+      <c r="B184" s="53" t="n">
         <f aca="false">D148</f>
         <v>2637</v>
       </c>
@@ -26453,7 +26464,7 @@
       <c r="P184" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q184" s="55" t="inlineStr">
+      <c r="Q184" s="54" t="inlineStr">
         <f aca="false">SUM(Q180:Q183)</f>
         <is>
           <t/>
@@ -26471,7 +26482,7 @@
       <c r="AD184" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE184" s="54" t="inlineStr">
+      <c r="AE184" s="53" t="inlineStr">
         <f aca="false">Q184-B185</f>
         <is>
           <t/>
@@ -26494,7 +26505,7 @@
       <c r="A185" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="54" t="inlineStr">
+      <c r="B185" s="53" t="inlineStr">
         <f aca="false">SUM(B181:B184)</f>
         <is>
           <t/>
@@ -26614,14 +26625,14 @@
       <c r="A188" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="47" t="n">
+      <c r="B188" s="0" t="n">
         <f aca="false">B176</f>
         <v>58</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D188" s="47" t="n">
+      <c r="D188" s="0" t="n">
         <f aca="false">B188*C188</f>
         <v>1740</v>
       </c>
@@ -26629,14 +26640,14 @@
       <c r="P188" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Q188" s="47" t="n">
+      <c r="Q188" s="0" t="n">
         <f aca="false">Q176</f>
         <v>54</v>
       </c>
       <c r="R188" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="S188" s="47" t="n">
+      <c r="S188" s="0" t="n">
         <f aca="false">Q188*R188</f>
         <v>1620</v>
       </c>
@@ -26644,14 +26655,14 @@
       <c r="AD188" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AE188" s="47" t="n">
+      <c r="AE188" s="0" t="n">
         <f aca="false">Q188-B188</f>
         <v>-4</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AG188" s="47" t="n">
+      <c r="AG188" s="0" t="n">
         <f aca="false">AE188*AF188</f>
         <v>-120</v>
       </c>
@@ -26669,14 +26680,14 @@
       <c r="A189" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B189" s="47" t="n">
+      <c r="B189" s="0" t="n">
         <f aca="false">C176</f>
         <v>54</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D189" s="47" t="n">
+      <c r="D189" s="0" t="n">
         <f aca="false">B189*C189</f>
         <v>1080</v>
       </c>
@@ -26684,14 +26695,14 @@
       <c r="P189" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q189" s="47" t="n">
+      <c r="Q189" s="0" t="n">
         <f aca="false">R176</f>
         <v>46</v>
       </c>
       <c r="R189" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="S189" s="47" t="n">
+      <c r="S189" s="0" t="n">
         <f aca="false">Q189*R189</f>
         <v>920</v>
       </c>
@@ -26699,14 +26710,14 @@
       <c r="AD189" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AE189" s="47" t="n">
+      <c r="AE189" s="0" t="n">
         <f aca="false">Q189-B189</f>
         <v>-8</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AG189" s="47" t="n">
+      <c r="AG189" s="0" t="n">
         <f aca="false">AE189*AF189</f>
         <v>-160</v>
       </c>
@@ -26724,14 +26735,14 @@
       <c r="A190" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B190" s="47" t="n">
+      <c r="B190" s="0" t="n">
         <f aca="false">D176</f>
         <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D190" s="47" t="n">
+      <c r="D190" s="0" t="n">
         <f aca="false">B190*C190</f>
         <v>750</v>
       </c>
@@ -26739,14 +26750,14 @@
       <c r="P190" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q190" s="47" t="n">
+      <c r="Q190" s="0" t="n">
         <f aca="false">S176</f>
         <v>30</v>
       </c>
       <c r="R190" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S190" s="47" t="n">
+      <c r="S190" s="0" t="n">
         <f aca="false">Q190*R190</f>
         <v>750</v>
       </c>
@@ -26754,14 +26765,14 @@
       <c r="AD190" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AE190" s="47" t="n">
+      <c r="AE190" s="0" t="n">
         <f aca="false">Q190-B190</f>
         <v>0</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AG190" s="47" t="n">
+      <c r="AG190" s="0" t="n">
         <f aca="false">AE190*AF190</f>
         <v>0</v>
       </c>
@@ -26779,14 +26790,14 @@
       <c r="A191" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B191" s="47" t="n">
+      <c r="B191" s="0" t="n">
         <f aca="false">E176</f>
         <v>220</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D191" s="47" t="n">
+      <c r="D191" s="0" t="n">
         <f aca="false">B191*C191</f>
         <v>4840</v>
       </c>
@@ -26794,14 +26805,14 @@
       <c r="P191" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Q191" s="47" t="n">
+      <c r="Q191" s="0" t="n">
         <f aca="false">T176</f>
         <v>208</v>
       </c>
       <c r="R191" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="S191" s="47" t="n">
+      <c r="S191" s="0" t="n">
         <f aca="false">Q191*R191</f>
         <v>4576</v>
       </c>
@@ -26809,14 +26820,14 @@
       <c r="AD191" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="AE191" s="47" t="n">
+      <c r="AE191" s="0" t="n">
         <f aca="false">Q191-B191</f>
         <v>-12</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AG191" s="47" t="n">
+      <c r="AG191" s="0" t="n">
         <f aca="false">AE191*AF191</f>
         <v>-264</v>
       </c>
@@ -26834,14 +26845,14 @@
       <c r="A192" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B192" s="47" t="n">
+      <c r="B192" s="0" t="n">
         <f aca="false">F176</f>
         <v>127</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D192" s="47" t="n">
+      <c r="D192" s="0" t="n">
         <f aca="false">B192*C192</f>
         <v>1905</v>
       </c>
@@ -26849,14 +26860,14 @@
       <c r="P192" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q192" s="47" t="n">
+      <c r="Q192" s="0" t="n">
         <f aca="false">U176</f>
         <v>156</v>
       </c>
       <c r="R192" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S192" s="47" t="n">
+      <c r="S192" s="0" t="n">
         <f aca="false">Q192*R192</f>
         <v>2340</v>
       </c>
@@ -26864,14 +26875,14 @@
       <c r="AD192" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AE192" s="47" t="n">
+      <c r="AE192" s="0" t="n">
         <f aca="false">Q192-B192</f>
         <v>29</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AG192" s="47" t="n">
+      <c r="AG192" s="0" t="n">
         <f aca="false">AE192*AF192</f>
         <v>435</v>
       </c>
@@ -26889,14 +26900,14 @@
       <c r="A193" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B193" s="47" t="n">
+      <c r="B193" s="0" t="n">
         <f aca="false">G176</f>
         <v>205</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D193" s="47" t="n">
+      <c r="D193" s="0" t="n">
         <f aca="false">B193*C193</f>
         <v>3075</v>
       </c>
@@ -26904,14 +26915,14 @@
       <c r="P193" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="Q193" s="47" t="n">
+      <c r="Q193" s="0" t="n">
         <f aca="false">V176</f>
         <v>241</v>
       </c>
       <c r="R193" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S193" s="47" t="n">
+      <c r="S193" s="0" t="n">
         <f aca="false">Q193*R193</f>
         <v>3615</v>
       </c>
@@ -26919,14 +26930,14 @@
       <c r="AD193" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AE193" s="47" t="n">
+      <c r="AE193" s="0" t="n">
         <f aca="false">Q193-B193</f>
         <v>36</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AG193" s="47" t="n">
+      <c r="AG193" s="0" t="n">
         <f aca="false">AE193*AF193</f>
         <v>540</v>
       </c>
@@ -26944,11 +26955,11 @@
       <c r="A194" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B194" s="47" t="n">
+      <c r="B194" s="0" t="n">
         <f aca="false">SUM(B188:B193)</f>
         <v>694</v>
       </c>
-      <c r="D194" s="47" t="n">
+      <c r="D194" s="0" t="n">
         <f aca="false">SUM(D188:D193)</f>
         <v>13390</v>
       </c>
@@ -26956,11 +26967,11 @@
       <c r="P194" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Q194" s="47" t="n">
+      <c r="Q194" s="0" t="n">
         <f aca="false">SUM(Q188:Q193)</f>
         <v>735</v>
       </c>
-      <c r="S194" s="47" t="n">
+      <c r="S194" s="0" t="n">
         <f aca="false">SUM(S188:S193)</f>
         <v>13821</v>
       </c>
@@ -26968,11 +26979,11 @@
       <c r="AD194" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AE194" s="47" t="n">
+      <c r="AE194" s="0" t="n">
         <f aca="false">Q194-B194</f>
         <v>41</v>
       </c>
-      <c r="AG194" s="47" t="n">
+      <c r="AG194" s="0" t="n">
         <f aca="false">SUM(AG188:AG193)</f>
         <v>431</v>
       </c>
@@ -27019,45 +27030,215 @@
       <c r="D196" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="Q196" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="R196" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S196" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T196" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="U196" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="AB196" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
+      <c r="P197" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R197" s="0" t="n">
+        <f aca="false">AA28</f>
+        <v>22</v>
+      </c>
+      <c r="S197" s="0" t="n">
+        <f aca="false">W104</f>
+        <v>56</v>
+      </c>
+      <c r="T197" s="0" t="n">
+        <f aca="false">W154</f>
+        <v>27</v>
+      </c>
+      <c r="U197" s="0" t="n">
+        <f aca="false">Q197+R197+S197+T197</f>
+        <v>105</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B198" s="56" t="inlineStr">
+      <c r="B198" s="55" t="inlineStr">
         <f aca="false">B182</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C198" s="56" t="inlineStr">
+      <c r="C198" s="55" t="inlineStr">
         <f aca="false">Q181</f>
         <is>
           <t/>
         </is>
       </c>
+      <c r="P198" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R198" s="0" t="n">
+        <f aca="false">AA29</f>
+        <v>32</v>
+      </c>
+      <c r="S198" s="0" t="n">
+        <f aca="false">W106</f>
+        <v>51</v>
+      </c>
+      <c r="T198" s="0" t="n">
+        <f aca="false">W155</f>
+        <v>22</v>
+      </c>
+      <c r="U198" s="0" t="n">
+        <f aca="false">Q198+R198+S198+T198</f>
+        <v>105</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B199" s="56" t="inlineStr">
+      <c r="B199" s="55" t="inlineStr">
         <f aca="false">B183</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C199" s="56" t="inlineStr">
+      <c r="C199" s="55" t="inlineStr">
         <f aca="false">Q182</f>
         <is>
           <t/>
         </is>
       </c>
+      <c r="P199" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="R199" s="0" t="n">
+        <f aca="false">AA30</f>
+        <v>31</v>
+      </c>
+      <c r="S199" s="0" t="n">
+        <f aca="false">W107</f>
+        <v>49</v>
+      </c>
+      <c r="T199" s="0" t="n">
+        <f aca="false">W157</f>
+        <v>25</v>
+      </c>
+      <c r="U199" s="0" t="n">
+        <f aca="false">Q199+R199+S199+T199</f>
+        <v>105</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="200">
-      <c r="D200" s="54" t="n">
+      <c r="D200" s="53" t="n">
         <v>13390</v>
+      </c>
+      <c r="P200" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="R200" s="0" t="n">
+        <f aca="false">AA31</f>
+        <v>27</v>
+      </c>
+      <c r="S200" s="0" t="n">
+        <f aca="false">W109</f>
+        <v>53</v>
+      </c>
+      <c r="T200" s="0" t="n">
+        <f aca="false">W158</f>
+        <v>25</v>
+      </c>
+      <c r="U200" s="0" t="n">
+        <f aca="false">Q200+R200+S200+T200</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="201">
+      <c r="P201" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <f aca="false">AA33</f>
+        <v>28</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <f aca="false">W111</f>
+        <v>58</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <f aca="false">W159</f>
+        <v>19</v>
+      </c>
+      <c r="U201" s="0" t="n">
+        <f aca="false">Q201+R201+S201+T201</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="202">
+      <c r="P202" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="R202" s="0" t="n">
+        <f aca="false">AA34</f>
+        <v>27</v>
+      </c>
+      <c r="S202" s="0" t="n">
+        <f aca="false">W113</f>
+        <v>47</v>
+      </c>
+      <c r="T202" s="0" t="n">
+        <f aca="false">W160</f>
+        <v>31</v>
+      </c>
+      <c r="U202" s="0" t="n">
+        <f aca="false">Q202+R202+S202+T202</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="203">
+      <c r="P203" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="R203" s="0" t="n">
+        <f aca="false">AA35</f>
+        <v>23</v>
+      </c>
+      <c r="S203" s="0" t="n">
+        <f aca="false">W114</f>
+        <v>54</v>
+      </c>
+      <c r="U203" s="0" t="n">
+        <f aca="false">Q203+R203+S203+T203</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="204">
+      <c r="R204" s="0" t="n">
+        <f aca="false">R197+R198+R199+R200+R201+R202+R203</f>
+        <v>190</v>
+      </c>
+      <c r="S204" s="0" t="n">
+        <f aca="false">S197+S198+S199+S200+S201+S202+S203</f>
+        <v>368</v>
+      </c>
+      <c r="T204" s="0" t="n">
+        <f aca="false">T197+T198+T199+T200+T201+T202+T203</f>
+        <v>149</v>
+      </c>
+      <c r="U204" s="0" t="n">
+        <f aca="false">U197+U198+U199+U200+U201+U202+U203</f>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -27165,10 +27346,10 @@
       <c r="M2" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -27723,7 +27904,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="48"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
@@ -27756,7 +27937,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="14"/>
-      <c r="L27" s="48"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
@@ -27781,16 +27962,16 @@
       <c r="G28" s="19" t="n">
         <v>9.1</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="65" t="n">
+      <c r="I28" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="66" t="n">
+      <c r="J28" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="K28" s="66"/>
+      <c r="K28" s="65"/>
       <c r="M28" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
@@ -27821,10 +28002,10 @@
       <c r="I29" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="J29" s="67" t="n">
+      <c r="J29" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="K29" s="67"/>
+      <c r="K29" s="66"/>
       <c r="M29" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
@@ -27849,16 +28030,16 @@
       <c r="G30" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="68" t="n">
+      <c r="I30" s="67" t="n">
         <v>14</v>
       </c>
-      <c r="J30" s="69" t="n">
+      <c r="J30" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="68"/>
       <c r="M30" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
@@ -27883,10 +28064,10 @@
       <c r="G31" s="26" t="n">
         <v>9.1</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="63" t="n">
+      <c r="I31" s="62" t="n">
         <v>6</v>
       </c>
       <c r="J31" s="30" t="n">
@@ -27903,10 +28084,10 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="63" t="n">
+      <c r="I32" s="62" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="30" t="n">
@@ -27971,10 +28152,10 @@
       <c r="G34" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="70" t="n">
+      <c r="I34" s="69" t="n">
         <v>13</v>
       </c>
       <c r="J34" s="39" t="n">
@@ -28005,10 +28186,10 @@
       <c r="G35" s="40" t="n">
         <v>9.1</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="71" t="n">
+      <c r="I35" s="70" t="n">
         <v>4</v>
       </c>
       <c r="J35" s="43" t="n">
@@ -28313,11 +28494,11 @@
       <c r="M50" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -29145,15 +29326,15 @@
         <f aca="false">D59+D63+D67+D71+D83</f>
         <v>9</v>
       </c>
-      <c r="F92" s="47" t="n">
+      <c r="F92" s="0" t="n">
         <f aca="false">C107</f>
         <v>9</v>
       </c>
-      <c r="G92" s="47" t="n">
+      <c r="G92" s="0" t="n">
         <f aca="false">E74+E77+E81++E83+E84</f>
         <v>16</v>
       </c>
-      <c r="H92" s="47" t="n">
+      <c r="H92" s="0" t="n">
         <f aca="false">F109</f>
         <v>16</v>
       </c>
@@ -29180,15 +29361,15 @@
         <f aca="false">D58</f>
         <v>6</v>
       </c>
-      <c r="F93" s="47" t="n">
+      <c r="F93" s="0" t="n">
         <f aca="false">C114</f>
         <v>6</v>
       </c>
-      <c r="G93" s="47" t="n">
+      <c r="G93" s="0" t="n">
         <f aca="false">E80+E85</f>
         <v>7</v>
       </c>
-      <c r="H93" s="47" t="n">
+      <c r="H93" s="0" t="n">
         <f aca="false">F104</f>
         <v>7</v>
       </c>
@@ -29245,15 +29426,15 @@
         <f aca="false">D60+D64+D68</f>
         <v>88</v>
       </c>
-      <c r="F95" s="47" t="n">
+      <c r="F95" s="0" t="n">
         <f aca="false">C104+C106+C110+C113</f>
         <v>88</v>
       </c>
-      <c r="G95" s="47" t="n">
+      <c r="G95" s="0" t="n">
         <f aca="false">E78</f>
         <v>8</v>
       </c>
-      <c r="H95" s="47" t="n">
+      <c r="H95" s="0" t="n">
         <f aca="false">F110</f>
         <v>8</v>
       </c>
@@ -29280,15 +29461,15 @@
         <f aca="false">D72</f>
         <v>51</v>
       </c>
-      <c r="F96" s="47" t="n">
+      <c r="F96" s="0" t="n">
         <f aca="false">C108+C109+C111</f>
         <v>51</v>
       </c>
-      <c r="G96" s="47" t="n">
+      <c r="G96" s="0" t="n">
         <f aca="false">E72+E75</f>
         <v>79</v>
       </c>
-      <c r="H96" s="47" t="n">
+      <c r="H96" s="0" t="n">
         <f aca="false">F106+F107+F113</f>
         <v>79</v>
       </c>
@@ -29315,15 +29496,15 @@
         <f aca="false">D62+D66+D70+D82</f>
         <v>50</v>
       </c>
-      <c r="F97" s="47" t="n">
+      <c r="F97" s="0" t="n">
         <f aca="false">C105+C112+C115</f>
         <v>50</v>
       </c>
-      <c r="G97" s="47" t="n">
+      <c r="G97" s="0" t="n">
         <f aca="false">E73+E76+E79+E82</f>
         <v>52</v>
       </c>
-      <c r="H97" s="47" t="n">
+      <c r="H97" s="0" t="n">
         <f aca="false">F105+F111+F114</f>
         <v>52</v>
       </c>
@@ -29463,7 +29644,7 @@
         <f aca="false">C104+F104+C105+F105</f>
         <v>56</v>
       </c>
-      <c r="I104" s="47" t="n">
+      <c r="I104" s="0" t="n">
         <f aca="false">H169</f>
         <v>105</v>
       </c>
@@ -29522,7 +29703,7 @@
         <f aca="false">C106+F106</f>
         <v>50</v>
       </c>
-      <c r="I106" s="47" t="n">
+      <c r="I106" s="0" t="n">
         <f aca="false">H170</f>
         <v>105</v>
       </c>
@@ -29557,7 +29738,7 @@
         <f aca="false">C107+C108+F107</f>
         <v>49</v>
       </c>
-      <c r="I107" s="47" t="n">
+      <c r="I107" s="0" t="n">
         <f aca="false">H171</f>
         <v>105</v>
       </c>
@@ -29585,7 +29766,7 @@
       <c r="M108" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="63" t="s">
+      <c r="A109" s="62" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="26" t="s">
@@ -29610,7 +29791,7 @@
         <f aca="false">C109+C110+F109+F110</f>
         <v>52</v>
       </c>
-      <c r="I109" s="47" t="n">
+      <c r="I109" s="0" t="n">
         <f aca="false">H172</f>
         <v>105</v>
       </c>
@@ -29619,7 +29800,7 @@
       <c r="M109" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
-      <c r="A110" s="63"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="31" t="s">
         <v>19</v>
       </c>
@@ -29670,7 +29851,7 @@
         <f aca="false">C111+C112+F111</f>
         <v>52</v>
       </c>
-      <c r="I111" s="47" t="n">
+      <c r="I111" s="0" t="n">
         <f aca="false">H173</f>
         <v>105</v>
       </c>
@@ -29723,7 +29904,7 @@
         <f aca="false">C113+F113</f>
         <v>50</v>
       </c>
-      <c r="I113" s="47" t="n">
+      <c r="I113" s="0" t="n">
         <f aca="false">H174</f>
         <v>105</v>
       </c>
@@ -29758,7 +29939,7 @@
         <f aca="false">C114+C115+F114</f>
         <v>57</v>
       </c>
-      <c r="I114" s="47" t="n">
+      <c r="I114" s="0" t="n">
         <f aca="false">H175</f>
         <v>105</v>
       </c>
@@ -29780,7 +29961,7 @@
       <c r="E115" s="40"/>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
-      <c r="H115" s="48"/>
+      <c r="H115" s="47"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="3"/>
@@ -29836,10 +30017,10 @@
       <c r="M118" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="119">
-      <c r="A119" s="59" t="s">
+      <c r="A119" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="59"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -29944,7 +30125,7 @@
       <c r="A125" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -29966,7 +30147,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="2"/>
-      <c r="B126" s="49"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
@@ -31228,11 +31409,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="176">
       <c r="A176" s="2"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="53" t="s">
+      <c r="B176" s="51"/>
+      <c r="C176" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D176" s="53"/>
+      <c r="D176" s="52"/>
       <c r="E176" s="2" t="n">
         <f aca="false">B48+B98+B148</f>
         <v>735</v>
@@ -31298,7 +31479,7 @@
       <c r="A180" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B180" s="55" t="n">
+      <c r="B180" s="54" t="n">
         <v>0</v>
       </c>
       <c r="C180" s="2"/>
@@ -31316,7 +31497,7 @@
       <c r="A181" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B181" s="55" t="n">
+      <c r="B181" s="54" t="n">
         <f aca="false">D48</f>
         <v>4159</v>
       </c>
@@ -31335,7 +31516,7 @@
       <c r="A182" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B182" s="55" t="n">
+      <c r="B182" s="54" t="n">
         <f aca="false">D98</f>
         <v>6602</v>
       </c>
@@ -31354,7 +31535,7 @@
       <c r="A183" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B183" s="55" t="n">
+      <c r="B183" s="54" t="n">
         <f aca="false">D148</f>
         <v>2910</v>
       </c>
@@ -31373,7 +31554,7 @@
       <c r="A184" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B184" s="55" t="inlineStr">
+      <c r="B184" s="54" t="inlineStr">
         <f aca="false">SUM(B180:B183)</f>
         <is>
           <t/>
@@ -31423,10 +31604,10 @@
         <v>52</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -31438,14 +31619,14 @@
       <c r="B190" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C190" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="56" t="n">
+      <c r="C190" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="55" t="n">
         <f aca="false">PA!D178</f>
         <v>0</v>
       </c>
-      <c r="E190" s="73" t="n">
+      <c r="E190" s="72" t="n">
         <f aca="false">D190-C190</f>
         <v>0</v>
       </c>
@@ -31459,16 +31640,16 @@
       <c r="B191" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C191" s="72" t="n">
+      <c r="C191" s="71" t="n">
         <v>3939</v>
       </c>
-      <c r="D191" s="56" t="inlineStr">
+      <c r="D191" s="55" t="inlineStr">
         <f aca="false">B181</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="E191" s="73" t="inlineStr">
+      <c r="E191" s="72" t="inlineStr">
         <f aca="false">D191-C191</f>
         <is>
           <t/>
@@ -31484,16 +31665,16 @@
       <c r="B192" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C192" s="72" t="n">
+      <c r="C192" s="71" t="n">
         <v>6814</v>
       </c>
-      <c r="D192" s="56" t="inlineStr">
+      <c r="D192" s="55" t="inlineStr">
         <f aca="false">B182</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="E192" s="73" t="inlineStr">
+      <c r="E192" s="72" t="inlineStr">
         <f aca="false">D192-C192</f>
         <is>
           <t/>
@@ -31509,16 +31690,16 @@
       <c r="B193" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C193" s="72" t="n">
+      <c r="C193" s="71" t="n">
         <v>2637</v>
       </c>
-      <c r="D193" s="56" t="inlineStr">
+      <c r="D193" s="55" t="inlineStr">
         <f aca="false">B183</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="E193" s="73" t="inlineStr">
+      <c r="E193" s="72" t="inlineStr">
         <f aca="false">D193-C193</f>
         <is>
           <t/>
@@ -31531,17 +31712,17 @@
       <c r="L193" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="194">
-      <c r="C194" s="73" t="n">
+      <c r="C194" s="72" t="n">
         <f aca="false">SUM(C190:C193)</f>
         <v>13390</v>
       </c>
-      <c r="D194" s="73" t="inlineStr">
+      <c r="D194" s="72" t="inlineStr">
         <f aca="false">SUM(D190:D193)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="E194" s="73" t="n">
+      <c r="E194" s="72" t="n">
         <f aca="false">D194-C194</f>
         <v>281</v>
       </c>
@@ -34207,7 +34388,7 @@
       <c r="E116" s="40"/>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
-      <c r="H116" s="48"/>
+      <c r="H116" s="47"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -34361,7 +34542,7 @@
       <c r="A125" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -34384,7 +34565,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="2"/>
-      <c r="B126" s="49"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
@@ -35576,27 +35757,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="175">
       <c r="A175" s="2"/>
-      <c r="B175" s="47" t="n">
+      <c r="B175" s="0" t="n">
         <f aca="false">SUM(B168:B174)</f>
         <v>58</v>
       </c>
-      <c r="C175" s="47" t="n">
+      <c r="C175" s="0" t="n">
         <f aca="false">SUM(C168:C174)</f>
         <v>54</v>
       </c>
-      <c r="D175" s="47" t="n">
+      <c r="D175" s="0" t="n">
         <f aca="false">SUM(D168:D174)</f>
         <v>30</v>
       </c>
-      <c r="E175" s="47" t="n">
+      <c r="E175" s="0" t="n">
         <f aca="false">SUM(E168:E174)</f>
         <v>220</v>
       </c>
-      <c r="F175" s="47" t="n">
+      <c r="F175" s="0" t="n">
         <f aca="false">SUM(F168:F174)</f>
         <v>127</v>
       </c>
-      <c r="G175" s="47" t="n">
+      <c r="G175" s="0" t="n">
         <f aca="false">SUM(G168:G174)</f>
         <v>205</v>
       </c>
@@ -35618,11 +35799,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="177">
       <c r="A177" s="2"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="53" t="s">
+      <c r="B177" s="51"/>
+      <c r="C177" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D177" s="53"/>
+      <c r="D177" s="52"/>
       <c r="E177" s="2" t="n">
         <f aca="false">G21+F87+F136</f>
         <v>694</v>
@@ -35652,7 +35833,7 @@
       <c r="A179" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B179" s="54" t="n">
+      <c r="B179" s="53" t="n">
         <v>0</v>
       </c>
       <c r="C179" s="2"/>
